--- a/Value Stocks/Lockheed Martin.xlsx
+++ b/Value Stocks/Lockheed Martin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B5927D-2408-F644-819C-38BBF1497FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE0B343-B0B3-6442-9641-4CA9E68F7B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2600,10 +2600,10 @@
   <dimension ref="A1:AO118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD9" sqref="AD9"/>
+      <selection pane="bottomRight" activeCell="AH88" sqref="AH88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
